--- a/Resources/AMap.xlsx
+++ b/Resources/AMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>Element_Name</t>
   </si>
@@ -60,42 +60,6 @@
   </si>
   <si>
     <t>//*[@id='cyclosLogin']/table/tbody/tr[3]/td/input</t>
-  </si>
-  <si>
-    <t>ELM_LOGGEDUSER</t>
-  </si>
-  <si>
-    <t>//*[@id='loginDataBar']/span[1]</t>
-  </si>
-  <si>
-    <t>ELM_ACCOUNTS</t>
-  </si>
-  <si>
-    <t>//span[contains(text(),'Accounts')]</t>
-  </si>
-  <si>
-    <t>ELM_MANAGEMEMBERS</t>
-  </si>
-  <si>
-    <t>//span[contains(text(),'Manage Members')]</t>
-  </si>
-  <si>
-    <t>ELM_ACCOUNTINFORMATION</t>
-  </si>
-  <si>
-    <t>//span[contains(text(),'Account Information')]</t>
-  </si>
-  <si>
-    <t>ELM_MEMBERPAYMENT</t>
-  </si>
-  <si>
-    <t>//span[contains(text(),'Member Payment')]</t>
-  </si>
-  <si>
-    <t>ELM_LOGOUT</t>
-  </si>
-  <si>
-    <t>//span[contains(text(),'Logout')]</t>
   </si>
   <si>
     <t>LNK_ManageMembers</t>
@@ -621,11 +585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,72 +667,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -778,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -810,275 +708,275 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/AMap.xlsx
+++ b/Resources/AMap.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lakshmi.saravanan\Desktop\selenium-adv1\Framework\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5865" tabRatio="782" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="3" r:id="rId1"/>
-    <sheet name="RegisterMember" sheetId="4" r:id="rId2"/>
+    <sheet name="Login" sheetId="2" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="4" r:id="rId2"/>
+    <sheet name="AccountOverview" sheetId="6" r:id="rId3"/>
+    <sheet name="SearchTransaction" sheetId="7" r:id="rId4"/>
+    <sheet name="RegisterMember" sheetId="8" r:id="rId5"/>
+    <sheet name="MemberPayment" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="174">
   <si>
     <t>Element_Name</t>
   </si>
@@ -44,7 +58,7 @@
     <t>xpath</t>
   </si>
   <si>
-    <t>//*[@id='cyclosUsername']</t>
+    <t>//*[@name='principal']</t>
   </si>
   <si>
     <t>TXB_PASSWORD</t>
@@ -53,7 +67,7 @@
     <t>cyclosPassword</t>
   </si>
   <si>
-    <t>//*[@id='cyclosPassword']</t>
+    <t>//*[@name='password']</t>
   </si>
   <si>
     <t>BTN_LOGIN</t>
@@ -62,163 +76,487 @@
     <t>//*[@id='cyclosLogin']/table/tbody/tr[3]/td/input</t>
   </si>
   <si>
+    <t>//*[@id='loginDataBar']/span[1]</t>
+  </si>
+  <si>
+    <t>ELM_LOGGEDUSER</t>
+  </si>
+  <si>
+    <t>img.view</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>//img[@title='View']</t>
+  </si>
+  <si>
+    <t>IMG_View</t>
+  </si>
+  <si>
+    <t>table.defaultTable</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table/tbody/tr[2]/td/table</t>
+  </si>
+  <si>
+    <t>TBL_MyAccountsInner</t>
+  </si>
+  <si>
+    <t>#tdContents</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']</t>
+  </si>
+  <si>
+    <t>TBL_MyAccounts</t>
+  </si>
+  <si>
+    <t>//tr[8]/td[2]</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table/tbody/tr[2]/td/table/tbody/tr[8]/td[2]</t>
+  </si>
+  <si>
+    <t>TXT_Description</t>
+  </si>
+  <si>
+    <t>//tr[7]/td[2]</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table/tbody/tr[2]/td/table/tbody/tr[7]/td[2]</t>
+  </si>
+  <si>
+    <t>TXT_Amount</t>
+  </si>
+  <si>
+    <t>//tr[6]/td[2]</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table/tbody/tr[2]/td/table/tbody/tr[6]/td[2]</t>
+  </si>
+  <si>
+    <t>TXT_TransactionType</t>
+  </si>
+  <si>
+    <t>//tr[5]/td[2]</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table/tbody/tr[2]/td/table/tbody/tr[5]/td[2]</t>
+  </si>
+  <si>
+    <t>TXT_ToMember</t>
+  </si>
+  <si>
+    <t>//tr[4]/td[2]</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table/tbody/tr[2]/td/table/tbody/tr[4]/td[2]</t>
+  </si>
+  <si>
+    <t>TXT_FromMember</t>
+  </si>
+  <si>
+    <t>//tr[2]/td[2]</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table/tbody/tr[2]/td/table/tbody/tr[2]/td[2]</t>
+  </si>
+  <si>
+    <t>TXT_ProcessedAt</t>
+  </si>
+  <si>
+    <t>//td/table/tbody/tr/td[2]</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table/tbody/tr[2]/td/table/tbody/tr/td[2]</t>
+  </si>
+  <si>
+    <t>TXT_SubmittedAt</t>
+  </si>
+  <si>
+    <t>#backButton</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table[2]/tbody/tr/td/input</t>
+  </si>
+  <si>
+    <t>BTN_Back</t>
+  </si>
+  <si>
+    <t>td.tdContentTableForms.innerBorder</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table/tbody/tr[2]/td</t>
+  </si>
+  <si>
+    <t>TBL_TransactionDetailsInner</t>
+  </si>
+  <si>
+    <t>//div[@id='topTable']/div[3]</t>
+  </si>
+  <si>
+    <t>TBL_TransactionDetails</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table/tbody/tr[3]/td/table/tbody/tr[2]/td[5]/img</t>
+  </si>
+  <si>
+    <t>IMG_view</t>
+  </si>
+  <si>
+    <t>td.headerField</t>
+  </si>
+  <si>
+    <t>TXT_AccountBalance</t>
+  </si>
+  <si>
+    <t>#tdContents &gt; table.defaultTableContent</t>
+  </si>
+  <si>
+    <t>//div[3]/table</t>
+  </si>
+  <si>
+    <t>TBL_SearchResults</t>
+  </si>
+  <si>
+    <t>document.accountHistoryForm.elements[13]</t>
+  </si>
+  <si>
+    <t>dom</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/form/table/tbody/tr[2]/td/table/tbody/tr[5]/td[2]/input</t>
+  </si>
+  <si>
+    <t>BTN_Search</t>
+  </si>
+  <si>
+    <t>#modeButton</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/form/table/tbody/tr[2]/td/table/tbody/tr[5]/td/input</t>
+  </si>
+  <si>
+    <t>BTN_Simple</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/form/table/tbody/tr[2]/td/table/tbody/tr[4]/td[2]</t>
+  </si>
+  <si>
+    <t>TXB_Description</t>
+  </si>
+  <si>
+    <t>#_id1499927045702_951</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/form/table/tbody/tr[2]/td/table/tbody/tr[3]/td[4]/input</t>
+  </si>
+  <si>
+    <t>TXB_EndDate</t>
+  </si>
+  <si>
+    <t>#_id1499927045689_334</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/form/table/tbody/tr[2]/td/table/tbody/tr[3]/td[2]/input</t>
+  </si>
+  <si>
+    <t>TXB_BeginDate</t>
+  </si>
+  <si>
+    <t>#memberName</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/form/table/tbody/tr[2]/td/table/tbody/tr[2]/td[4]/input</t>
+  </si>
+  <si>
+    <t>TXB_MemberName</t>
+  </si>
+  <si>
+    <t>#memberUsername</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/form/table/tbody/tr[2]/td/table/tbody/tr[2]/td[2]/input[2]</t>
+  </si>
+  <si>
+    <t>TXB_MemberLogin</t>
+  </si>
+  <si>
+    <t>#filterSelect</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/form/table/tbody/tr[2]/td/table/tbody/tr[2]/td[2]/select</t>
+  </si>
+  <si>
+    <t>LST_PaymentType</t>
+  </si>
+  <si>
+    <t>//td/table/tbody/tr[2]/td</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/form/table/tbody/tr[2]/td/table/tbody/tr[2]/td</t>
+  </si>
+  <si>
+    <t>BTN_Advanced</t>
+  </si>
+  <si>
+    <t>table.defaultTableContent</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/form/table</t>
+  </si>
+  <si>
+    <t>TBL_SearchTransaction</t>
+  </si>
+  <si>
+    <t>brokerName</t>
+  </si>
+  <si>
+    <t>.//*[@id='brokerName']</t>
+  </si>
+  <si>
+    <t>TXB_BrokerName</t>
+  </si>
+  <si>
+    <t>brokerUsername</t>
+  </si>
+  <si>
+    <t>.//*[@id='brokerUsername']</t>
+  </si>
+  <si>
+    <t>TXB_Brokerlogin</t>
+  </si>
+  <si>
+    <t>assignBrokerCheck</t>
+  </si>
+  <si>
+    <t>.//*[@id='assignBrokerCheck']</t>
+  </si>
+  <si>
+    <t>CheckBox_AssignBroker</t>
+  </si>
+  <si>
+    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[18]/td[2]/input</t>
+  </si>
+  <si>
+    <t>Checkbox_Forcechange</t>
+  </si>
+  <si>
+    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[17]/td[2]/input</t>
+  </si>
+  <si>
+    <t>TXB_confirmpassword</t>
+  </si>
+  <si>
+    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[16]/td[2]/input</t>
+  </si>
+  <si>
+    <t>TXB_password</t>
+  </si>
+  <si>
+    <t>assignPasswordCheck</t>
+  </si>
+  <si>
+    <t>.//*[@id='assignPasswordCheck']</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>saveAndNewButton</t>
+  </si>
+  <si>
+    <t>.//*[@id='saveAndNewButton']</t>
+  </si>
+  <si>
+    <t>BTN_submit</t>
+  </si>
+  <si>
+    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[11]/td[2]/input[3]</t>
+  </si>
+  <si>
+    <t>TXB_MobilePhone</t>
+  </si>
+  <si>
+    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[10]/td[2]/input[3]</t>
+  </si>
+  <si>
+    <t>TXB_Phone</t>
+  </si>
+  <si>
+    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[9]/td[2]/input[3]</t>
+  </si>
+  <si>
+    <t>TXB_City</t>
+  </si>
+  <si>
+    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[8]/td[2]/input[3]</t>
+  </si>
+  <si>
+    <t>TXB_PostalCode</t>
+  </si>
+  <si>
+    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[7]/td[2]/input[3]</t>
+  </si>
+  <si>
+    <t>TXB_Address</t>
+  </si>
+  <si>
+    <t>.//*[@id='_radio_2_0']</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>_radio_2_0</t>
+  </si>
+  <si>
+    <t>F_Gender</t>
+  </si>
+  <si>
+    <t>.//*[@id='_radio_2_1']</t>
+  </si>
+  <si>
+    <t>_radio_2_1</t>
+  </si>
+  <si>
+    <t>M_Gender</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[4]/td[2]/input</t>
+  </si>
+  <si>
+    <t>TXB_Email</t>
+  </si>
+  <si>
+    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[3]/td[2]/input</t>
+  </si>
+  <si>
+    <t>TXB_FullName</t>
+  </si>
+  <si>
+    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[2]/td[2]/input</t>
+  </si>
+  <si>
+    <t>TXB_LoginName</t>
+  </si>
+  <si>
+    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[1]/td[2]/input</t>
+  </si>
+  <si>
+    <t>TXB_permissiongroups</t>
+  </si>
+  <si>
+    <t>.//*[@id='submenu5.0']/span[2]</t>
+  </si>
+  <si>
     <t>LNK_ManageMembers</t>
   </si>
   <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>.//*[@id='submenu5.0']/span[2]</t>
-  </si>
-  <si>
-    <t>TXB_permissiongroups</t>
-  </si>
-  <si>
-    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[1]/td[2]/input</t>
-  </si>
-  <si>
-    <t>TXB_LoginName</t>
-  </si>
-  <si>
-    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[2]/td[2]/input</t>
-  </si>
-  <si>
-    <t>TXB_FullName</t>
-  </si>
-  <si>
-    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[3]/td[2]/input</t>
-  </si>
-  <si>
-    <t>TXB_Email</t>
-  </si>
-  <si>
-    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[4]/td[2]/input</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>M_Gender</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>.//*[@id='_radio_2_1']</t>
-  </si>
-  <si>
-    <t>F_Gender</t>
-  </si>
-  <si>
-    <t>TXB_Address</t>
-  </si>
-  <si>
-    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[7]/td[2]/input[3]</t>
-  </si>
-  <si>
-    <t>TXB_PostalCode</t>
-  </si>
-  <si>
-    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[8]/td[2]/input[3]</t>
-  </si>
-  <si>
-    <t>TXB_City</t>
-  </si>
-  <si>
-    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[9]/td[2]/input[3]</t>
-  </si>
-  <si>
-    <t>TXB_Phone</t>
-  </si>
-  <si>
-    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[10]/td[2]/input[3]</t>
-  </si>
-  <si>
-    <t>TXB_MobilePhone</t>
-  </si>
-  <si>
-    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[11]/td[2]/input[3]</t>
-  </si>
-  <si>
-    <t>BTN_submit</t>
-  </si>
-  <si>
-    <t>.//*[@id='saveAndNewButton']</t>
-  </si>
-  <si>
-    <t>saveAndNewButton</t>
-  </si>
-  <si>
-    <t>Checkbox</t>
-  </si>
-  <si>
-    <t>.//*[@id='assignPasswordCheck']</t>
-  </si>
-  <si>
-    <t>assignPasswordCheck</t>
-  </si>
-  <si>
-    <t>TXB_password</t>
-  </si>
-  <si>
-    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[16]/td[2]/input</t>
-  </si>
-  <si>
-    <t>TXB_confirmpassword</t>
-  </si>
-  <si>
-    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[17]/td[2]/input</t>
-  </si>
-  <si>
-    <t>Checkbox_Forcechange</t>
-  </si>
-  <si>
-    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[18]/td[2]/input</t>
-  </si>
-  <si>
-    <t>CheckBox_AssignBroker</t>
-  </si>
-  <si>
-    <t>.//*[@id='assignBrokerCheck']</t>
-  </si>
-  <si>
-    <t>assignBrokerCheck</t>
-  </si>
-  <si>
-    <t>TXB_Brokerlogin</t>
-  </si>
-  <si>
-    <t>.//*[@id='brokerUsername']</t>
-  </si>
-  <si>
-    <t>brokerUsername</t>
-  </si>
-  <si>
-    <t>TXB_BrokerName</t>
-  </si>
-  <si>
-    <t>.//*[@id='brokerName']</t>
-  </si>
-  <si>
-    <t>brokerName</t>
-  </si>
-  <si>
-    <t>_radio_2_1</t>
-  </si>
-  <si>
-    <t>_radio_2_0</t>
-  </si>
-  <si>
-    <t>.//*[@id='_radio_2_0']</t>
-  </si>
-  <si>
     <t>html/body/div[2]/div/div/div/div[3]/form/table[1]/tbody/tr[2]/td/table/tbody/tr[5]/td[2]/input[3]</t>
+  </si>
+  <si>
+    <t>TBL_Payment_To_Member</t>
+  </si>
+  <si>
+    <t>.//div[@id='tdContents']/form/table/</t>
+  </si>
+  <si>
+    <t>TXB_Login</t>
+  </si>
+  <si>
+    <t>//input[@id='memberUsername']</t>
+  </si>
+  <si>
+    <t>TXB_Name</t>
+  </si>
+  <si>
+    <t>//input[@id='memberName']</t>
+  </si>
+  <si>
+    <t>TXB_Amount</t>
+  </si>
+  <si>
+    <t>//input[@id='amount']</t>
+  </si>
+  <si>
+    <t>document.paymentForm.amount</t>
+  </si>
+  <si>
+    <t>LST_Transaction_Type</t>
+  </si>
+  <si>
+    <t>//select[@id='type']</t>
+  </si>
+  <si>
+    <t>document.paymentForm.type</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/form/table/tbody/tr[2]/td/table/tbody/tr[11]/td[2]/textarea</t>
+  </si>
+  <si>
+    <t>document.paymentForm.description</t>
+  </si>
+  <si>
+    <t>BTN_Submit</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/form/table/tbody/tr[2]/td/table/tbody/tr[12]/td/input</t>
+  </si>
+  <si>
+    <t>#submitButton</t>
+  </si>
+  <si>
+    <t>TBL_Successful_Payment</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table</t>
+  </si>
+  <si>
+    <t>TXT_Success_Msg</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table/tbody/tr[2]/td/table/tbody/tr/td</t>
+  </si>
+  <si>
+    <t>table.defaultTable &gt; tbody &gt; tr &gt; td</t>
+  </si>
+  <si>
+    <t>BTN_Print</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table/tbody/tr[2]/td/table/tbody/tr[2]/td[2]/input</t>
+  </si>
+  <si>
+    <t>#printButton</t>
+  </si>
+  <si>
+    <t>BTN_Make_New_Payment</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table/tbody/tr[2]/td/table/tbody/tr[3]/td[2]/input</t>
+  </si>
+  <si>
+    <t>#newPaymentButton</t>
+  </si>
+  <si>
+    <t>BTN_To_Member_Profile</t>
+  </si>
+  <si>
+    <t>//div[@id='tdContents']/table/tbody/tr[2]/td/table/tbody/tr[4]/td[2]/input</t>
+  </si>
+  <si>
+    <t>#backToMemberProfileButton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,31 +600,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -309,44 +634,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -379,9 +704,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -420,190 +745,163 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,10 +917,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -639,7 +935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -656,7 +952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -674,19 +970,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="98.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -708,24 +1004,86 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,250 +1091,1019 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>64</v>
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
         <v>28</v>
       </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" activeCellId="1" sqref="C15 C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/AMap.xlsx
+++ b/Resources/AMap.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lakshmi.saravanan\Desktop\selenium-adv1\Framework\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5865" tabRatio="782" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495" tabRatio="782" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -20,6 +15,7 @@
     <sheet name="MemberPayment" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="176">
   <si>
     <t>Element_Name</t>
   </si>
@@ -551,6 +547,12 @@
   </si>
   <si>
     <t>#backToMemberProfileButton</t>
+  </si>
+  <si>
+    <t>BTN_Success_Submit</t>
+  </si>
+  <si>
+    <t>.//*[@id='tdContents']/form/table[1]/tbody/tr[2]/td/table/tbody/tr[7]/td/input</t>
   </si>
 </sst>
 </file>
@@ -1870,10 +1872,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" activeCellId="1" sqref="C15 C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,6 +2108,17 @@
         <v>173</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/AMap.xlsx
+++ b/Resources/AMap.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lakshmi.saravanan\Desktop\selenium-adv1\Framework\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5865" tabRatio="782" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14565" windowHeight="5865" tabRatio="782" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -20,6 +15,7 @@
     <sheet name="MemberPayment" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:E17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="176">
   <si>
     <t>Element_Name</t>
   </si>
@@ -551,6 +547,12 @@
   </si>
   <si>
     <t>#backToMemberProfileButton</t>
+  </si>
+  <si>
+    <t>ELM_AccountPane</t>
+  </si>
+  <si>
+    <t>html/body/div[2]/div/div/div/div[3]/table/tbody/tr[1]/td[1]</t>
   </si>
 </sst>
 </file>
@@ -1020,17 +1022,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1101,6 +1103,17 @@
       </c>
       <c r="E4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1872,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" activeCellId="1" sqref="C15 C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/AMap.xlsx
+++ b/Resources/AMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14565" windowHeight="5865" tabRatio="782" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14565" windowHeight="5865" tabRatio="782" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="MemberPayment" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E17"/>
+  <oleSize ref="A1:C17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="173">
   <si>
     <t>Element_Name</t>
   </si>
@@ -480,22 +480,13 @@
     <t>//input[@id='amount']</t>
   </si>
   <si>
-    <t>document.paymentForm.amount</t>
-  </si>
-  <si>
     <t>LST_Transaction_Type</t>
   </si>
   <si>
     <t>//select[@id='type']</t>
   </si>
   <si>
-    <t>document.paymentForm.type</t>
-  </si>
-  <si>
     <t>//div[@id='tdContents']/form/table/tbody/tr[2]/td/table/tbody/tr[11]/td[2]/textarea</t>
-  </si>
-  <si>
-    <t>document.paymentForm.description</t>
   </si>
   <si>
     <t>BTN_Submit</t>
@@ -1024,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1107,13 +1098,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1885,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,28 +1967,16 @@
       <c r="C5" t="s">
         <v>150</v>
       </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>152</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2008,41 +1987,35 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -2053,70 +2026,70 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/AMap.xlsx
+++ b/Resources/AMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14565" windowHeight="5865" tabRatio="782" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" tabRatio="782" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
   <si>
     <t>Element_Name</t>
   </si>
@@ -544,6 +544,33 @@
   </si>
   <si>
     <t>html/body/div[2]/div/div/div/div[3]/table/tbody/tr[1]/td[1]</t>
+  </si>
+  <si>
+    <t>//*[@id="tdContents"]/form/table[1]/tbody/tr[2]/td/table/tbody/tr[2]/td[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="tdContents"]/form/table[1]/tbody/tr[2]/td/table/tbody/tr[3]/td[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="tdContents"]/form/table[1]/tbody/tr[2]/td/table/tbody/tr[4]/td[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="tdContents"]/form/table[1]/tbody/tr[2]/td/table/tbody/tr[5]/td[2]</t>
+  </si>
+  <si>
+    <t>ELM_TransactionType</t>
+  </si>
+  <si>
+    <t>ELM_To</t>
+  </si>
+  <si>
+    <t>ELM_TransactionAmount</t>
+  </si>
+  <si>
+    <t>ELM_TransactionDescription</t>
+  </si>
+  <si>
+    <t>//*[@id="backButton"]</t>
   </si>
 </sst>
 </file>
@@ -1874,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,6 +2119,61 @@
         <v>170</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/AMap.xlsx
+++ b/Resources/AMap.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit_vora\Desktop\Selenium\Workspace\Framework\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" tabRatio="782" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" tabRatio="782" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -15,7 +20,6 @@
     <sheet name="MemberPayment" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:C17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="182">
   <si>
     <t>Element_Name</t>
   </si>
@@ -216,12 +220,6 @@
     <t>TBL_SearchResults</t>
   </si>
   <si>
-    <t>document.accountHistoryForm.elements[13]</t>
-  </si>
-  <si>
-    <t>dom</t>
-  </si>
-  <si>
     <t>//div[@id='tdContents']/form/table/tbody/tr[2]/td/table/tbody/tr[5]/td[2]/input</t>
   </si>
   <si>
@@ -571,12 +569,18 @@
   </si>
   <si>
     <t>//*[@id="backButton"]</t>
+  </si>
+  <si>
+    <t>BTN_Success_Submit</t>
+  </si>
+  <si>
+    <t>//*[@id="tdContents"]/form/table[1]/tbody/tr[2]/td/table/tbody/tr[7]/td/input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1125,13 +1129,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1143,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,132 +1179,132 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1311,35 +1315,29 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1623,275 +1621,275 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1901,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,232 +1933,232 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
         <v>154</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
         <v>159</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
         <v>162</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
         <v>165</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
         <v>168</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2171,6 +2169,17 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
         <v>181</v>
       </c>
     </row>

--- a/Resources/AMap.xlsx
+++ b/Resources/AMap.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" tabRatio="782" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" tabRatio="782" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="185">
   <si>
     <t>Element_Name</t>
   </si>
@@ -220,6 +220,12 @@
     <t>TBL_SearchResults</t>
   </si>
   <si>
+    <t>document.accountHistoryForm.elements[13]</t>
+  </si>
+  <si>
+    <t>dom</t>
+  </si>
+  <si>
     <t>//div[@id='tdContents']/form/table/tbody/tr[2]/td/table/tbody/tr[5]/td[2]/input</t>
   </si>
   <si>
@@ -574,7 +580,10 @@
     <t>BTN_Success_Submit</t>
   </si>
   <si>
-    <t>//*[@id="tdContents"]/form/table[1]/tbody/tr[2]/td/table/tbody/tr[7]/td/input</t>
+    <t>//*[@id="tdContents"]/form/table[1]/tbody/tr[2]/td/table/tbody/tr[6]/td/input</t>
+  </si>
+  <si>
+    <t>input.button</t>
   </si>
 </sst>
 </file>
@@ -1129,13 +1138,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1147,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,132 +1188,132 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>78</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>75</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
         <v>72</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1315,29 +1324,35 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1621,275 +1636,275 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1901,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,235 +1948,235 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2169,18 +2184,24 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/AMap.xlsx
+++ b/Resources/AMap.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" tabRatio="782" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" tabRatio="782" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="183">
   <si>
     <t>Element_Name</t>
   </si>
@@ -218,12 +218,6 @@
   </si>
   <si>
     <t>TBL_SearchResults</t>
-  </si>
-  <si>
-    <t>document.accountHistoryForm.elements[13]</t>
-  </si>
-  <si>
-    <t>dom</t>
   </si>
   <si>
     <t>//div[@id='tdContents']/form/table/tbody/tr[2]/td/table/tbody/tr[5]/td[2]/input</t>
@@ -1138,13 +1132,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1156,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,132 +1182,132 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1324,35 +1318,29 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1636,275 +1624,275 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1916,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,232 +1936,232 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
         <v>154</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
         <v>159</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
         <v>162</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
         <v>165</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
         <v>168</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2184,24 +2172,24 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
         <v>182</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/AMap.xlsx
+++ b/Resources/AMap.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit_vora\Desktop\Selenium\Workspace\Framework\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumTestNg\Framework\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" tabRatio="782" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3255" tabRatio="782" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="189">
   <si>
     <t>Element_Name</t>
   </si>
@@ -578,12 +578,30 @@
   </si>
   <si>
     <t>input.button</t>
+  </si>
+  <si>
+    <t>ELM_SingleAccountPane</t>
+  </si>
+  <si>
+    <t>html/body/div[2]/div/div/div/div[3]/form/table/tbody/tr[1]/td[1]</t>
+  </si>
+  <si>
+    <t>html/body/div[2]/div/div/div/div[3]/table[1]/tbody/tr[2]/td/table/tbody/tr/td[1]</t>
+  </si>
+  <si>
+    <t>ELM_SingleAccountType</t>
+  </si>
+  <si>
+    <t>ELM_SingleAccountBalance</t>
+  </si>
+  <si>
+    <t>html/body/div[2]/div/div/div/div[3]/table[1]/tbody/tr[2]/td/table/tbody/tr/td[2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1047,17 +1065,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1139,6 +1157,39 @@
       </c>
       <c r="C5" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1904,7 +1955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
